--- a/Python Code/descriptive_cat.xlsx
+++ b/Python Code/descriptive_cat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +448,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1754068716094032</v>
+        <v>0.1593959731543624</v>
       </c>
       <c r="C2" t="n">
-        <v>194</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1410488245931284</v>
+        <v>0.1172099712368169</v>
       </c>
       <c r="C3" t="n">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +474,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2341772151898734</v>
+        <v>0.2193192713326942</v>
       </c>
       <c r="C4" t="n">
-        <v>259</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2811934900542495</v>
+        <v>0.3163950143815916</v>
       </c>
       <c r="C5" t="n">
-        <v>311</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="6">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2043399638336347</v>
+        <v>0.1939117929050815</v>
       </c>
       <c r="C6" t="n">
-        <v>226</v>
+        <v>809</v>
       </c>
     </row>
     <row r="7">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3996383363471971</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C7" t="n">
-        <v>442</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="8">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3996383363471971</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C8" t="n">
-        <v>442</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="9">
@@ -539,829 +539,985 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8535262206148282</v>
+        <v>0.8676893576222435</v>
       </c>
       <c r="C9" t="n">
-        <v>944</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>own_house</t>
+          <t>improvised_house</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.825497287522604</v>
+        <v>0.01629913710450623</v>
       </c>
       <c r="C10" t="n">
-        <v>913</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>title_ownership</t>
+          <t>own_house</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2088607594936709</v>
+        <v>0.8168744007670182</v>
       </c>
       <c r="C11" t="n">
-        <v>231</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>concrete_walls</t>
+          <t>title_ownership</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2594936708860759</v>
+        <v>0.2217162032598274</v>
       </c>
       <c r="C12" t="n">
-        <v>287</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>concrete_floor</t>
+          <t>concrete_walls</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3264014466546112</v>
+        <v>0.274928092042186</v>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>concrete_roof</t>
+          <t>concrete_floor</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2061482820976492</v>
+        <v>0.3295781399808245</v>
       </c>
       <c r="C14" t="n">
-        <v>228</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>household_house</t>
+          <t>concrete_roof</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8634719710669078</v>
+        <v>0.2070949185043145</v>
       </c>
       <c r="C15" t="n">
-        <v>955</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>water_network</t>
+          <t>household_house</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3453887884267631</v>
+        <v>0.8755992329817833</v>
       </c>
       <c r="C16" t="n">
-        <v>382</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>potable_water</t>
+          <t>water_network</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4801084990958409</v>
+        <v>0.3427612655800575</v>
       </c>
       <c r="C17" t="n">
-        <v>531</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>water_quality_chlorine</t>
+          <t>potable_water</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1103074141048825</v>
+        <v>0.5920421860019175</v>
       </c>
       <c r="C18" t="n">
-        <v>122</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>water_daily_access</t>
+          <t>water_quality_chlorine</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6039783001808319</v>
+        <v>0.1313518696069032</v>
       </c>
       <c r="C19" t="n">
-        <v>668</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>drainage_network</t>
+          <t>water_daily_access</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3453887884267631</v>
+        <v>0.5539309683604986</v>
       </c>
       <c r="C20" t="n">
-        <v>382</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>electric_lighting</t>
+          <t>drainage_network</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9195298372513563</v>
+        <v>0.3427612655800575</v>
       </c>
       <c r="C21" t="n">
-        <v>1017</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>candle_lighting</t>
+          <t>electric_lighting</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0461121157323689</v>
+        <v>0.8933365292425696</v>
       </c>
       <c r="C22" t="n">
-        <v>51</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>other_lighting</t>
+          <t>fuel_lighting</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.04430379746835443</v>
+        <v>0.001438159156279962</v>
       </c>
       <c r="C23" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>glp_cooking</t>
+          <t>candle_lighting</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4385171790235081</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C24" t="n">
-        <v>485</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>wood_cooking</t>
+          <t>generator_lighting</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.05515370705244123</v>
+        <v>0.0009587727708533077</v>
       </c>
       <c r="C25" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>other_cooking</t>
+          <t>other_lighting</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1274864376130199</v>
+        <v>0.06255992329817833</v>
       </c>
       <c r="C26" t="n">
-        <v>141</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>manure_cooking</t>
+          <t>no_ligthing</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3770343580470163</v>
+        <v>0.0004793863854266539</v>
       </c>
       <c r="C27" t="n">
-        <v>417</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>phone</t>
+          <t>electric_cooking</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.03074141048824593</v>
+        <v>0.001917545541706615</v>
       </c>
       <c r="C28" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>cellphone</t>
+          <t>glp_cooking</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8300180831826401</v>
+        <v>0.4465484180249281</v>
       </c>
       <c r="C29" t="n">
-        <v>918</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>cableTV</t>
+          <t>gas_network_cooking</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1030741410488246</v>
+        <v>0.0002396931927133269</v>
       </c>
       <c r="C30" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>wood_cooking</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1283905967450271</v>
+        <v>0.05273250239693193</v>
       </c>
       <c r="C31" t="n">
-        <v>142</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>other_cooking</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6057866184448463</v>
+        <v>0.09995206136145733</v>
       </c>
       <c r="C32" t="n">
-        <v>670</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>overcrowding</t>
+          <t>manure_cooking</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3381555153707053</v>
+        <v>0.3986097794822627</v>
       </c>
       <c r="C33" t="n">
-        <v>374</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>fullbedroom_house</t>
+          <t>phone</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1121157323688969</v>
+        <v>0.02732502396931927</v>
       </c>
       <c r="C34" t="n">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>young_adult</t>
+          <t>cellphone</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.09312839059674503</v>
+        <v>0.8305369127516778</v>
       </c>
       <c r="C35" t="n">
-        <v>103</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>cableTV</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.07670182166826463</v>
       </c>
       <c r="C36" t="n">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>old_adult</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3264014466546112</v>
+        <v>0.1404602109300096</v>
       </c>
       <c r="C37" t="n">
-        <v>361</v>
+        <v>586</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>rural</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2947558770343581</v>
+        <v>0.5903643336529243</v>
       </c>
       <c r="C38" t="n">
-        <v>326</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>altitude</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2965641952983725</v>
+        <v>3880.381351869607</v>
       </c>
       <c r="C39" t="n">
-        <v>328</v>
+        <v>16188951</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>married</t>
+          <t>overcrowding</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4358047016274864</v>
+        <v>0.3847075743048897</v>
       </c>
       <c r="C40" t="n">
-        <v>482</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>literacy</t>
+          <t>fullbedroom_house</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1962025316455696</v>
+        <v>0.07598274209012464</v>
       </c>
       <c r="C41" t="n">
-        <v>217</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>no_education</t>
+          <t>young_adult</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.6401446654611211</v>
+        <v>0.113614573346117</v>
       </c>
       <c r="C42" t="n">
-        <v>708</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>basic_education</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2386980108499096</v>
+        <v>0.2869127516778524</v>
       </c>
       <c r="C43" t="n">
-        <v>264</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>technic_education</t>
+          <t>old_adult</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.04792043399638336</v>
+        <v>0.3156759348034516</v>
       </c>
       <c r="C44" t="n">
-        <v>53</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>college_education</t>
+          <t>old</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.0461121157323689</v>
+        <v>0.2837967401725791</v>
       </c>
       <c r="C45" t="n">
-        <v>51</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>posgraduate_education</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.027124773960217</v>
+        <v>0.3257430488974113</v>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>illness</t>
+          <t>married</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9783001808318263</v>
+        <v>0.4067593480345158</v>
       </c>
       <c r="C47" t="n">
-        <v>1082</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>accident</t>
+          <t>literacy</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2233273056057866</v>
+        <v>0.1955896452540748</v>
       </c>
       <c r="C48" t="n">
-        <v>247</v>
+        <v>816</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>healthy</t>
+          <t>no_education</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2757685352622061</v>
+        <v>0.6301534036433365</v>
       </c>
       <c r="C49" t="n">
-        <v>305</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>chronic_illness</t>
+          <t>basic_education</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.8752260397830018</v>
+        <v>0.2511984659635667</v>
       </c>
       <c r="C50" t="n">
-        <v>968</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>medical_attention</t>
+          <t>technic_education</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.6681735985533453</v>
+        <v>0.05033557046979865</v>
       </c>
       <c r="C51" t="n">
-        <v>739</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>contributory_hi</t>
+          <t>college_education</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1790235081374322</v>
+        <v>0.04578139980824544</v>
       </c>
       <c r="C52" t="n">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>subsidized_hi</t>
+          <t>posgraduate_education</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.7260397830018083</v>
+        <v>0.02253116011505273</v>
       </c>
       <c r="C53" t="n">
-        <v>803</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>disabilities</t>
+          <t>illness</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3173598553345389</v>
+        <v>0.9623681687440077</v>
       </c>
       <c r="C54" t="n">
-        <v>351</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>employment</t>
+          <t>accident</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.8670886075949367</v>
+        <v>0.2128475551294343</v>
       </c>
       <c r="C55" t="n">
-        <v>959</v>
+        <v>888</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>radio</t>
+          <t>healthy</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.8047016274864376</v>
+        <v>0.3451581975071908</v>
       </c>
       <c r="C56" t="n">
-        <v>890</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>TVcolor</t>
+          <t>chronic_illness</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.484629294755877</v>
+        <v>0.8559443911792906</v>
       </c>
       <c r="C57" t="n">
-        <v>536</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>TVnoncolor</t>
+          <t>medical_attention</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1193490054249548</v>
+        <v>0.6713806327900288</v>
       </c>
       <c r="C58" t="n">
-        <v>132</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>sound_equipment</t>
+          <t>contributory_hi</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.08318264014466546</v>
+        <v>0.1694630872483222</v>
       </c>
       <c r="C59" t="n">
-        <v>92</v>
+        <v>707</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>DVD</t>
+          <t>subsidized_hi</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2820976491862568</v>
+        <v>0.7332214765100671</v>
       </c>
       <c r="C60" t="n">
-        <v>312</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>computer_laptop</t>
+          <t>disabilities</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1754068716094032</v>
+        <v>0.3279002876318313</v>
       </c>
       <c r="C61" t="n">
-        <v>194</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>electric_iron</t>
+          <t>employment</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2386980108499096</v>
+        <v>0.8552253116011506</v>
       </c>
       <c r="C62" t="n">
-        <v>264</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>electric_mixer</t>
+          <t>radio</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.3037974683544304</v>
+        <v>0.7986577181208053</v>
       </c>
       <c r="C63" t="n">
-        <v>336</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>gas_stove</t>
+          <t>TVcolor</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.8905967450271248</v>
+        <v>0.473633748801534</v>
       </c>
       <c r="C64" t="n">
-        <v>985</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>refrigerator</t>
+          <t>TVnoncolor</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1012658227848101</v>
+        <v>0.1299137104506232</v>
       </c>
       <c r="C65" t="n">
-        <v>112</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>washing_machine</t>
+          <t>sound_equipment</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.05515370705244123</v>
+        <v>0.09443911792905081</v>
       </c>
       <c r="C66" t="n">
-        <v>61</v>
+        <v>394</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>microwave_oven</t>
+          <t>DVD</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.03707052441229657</v>
+        <v>0.2437679769894535</v>
       </c>
       <c r="C67" t="n">
-        <v>41</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>sewing_machine</t>
+          <t>video_recorder</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.06690777576853527</v>
+        <v>0.003835091083413231</v>
       </c>
       <c r="C68" t="n">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>bicycle</t>
+          <t>computer_laptop</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2775768535262206</v>
+        <v>0.1814477468839885</v>
       </c>
       <c r="C69" t="n">
-        <v>307</v>
+        <v>757</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>electric_iron</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.07414104882459313</v>
+        <v>0.2152444870565676</v>
       </c>
       <c r="C70" t="n">
-        <v>82</v>
+        <v>898</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>motorcycle</t>
+          <t>electric_mixer</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2305605786618445</v>
+        <v>0.2965004793863854</v>
       </c>
       <c r="C71" t="n">
-        <v>255</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
+          <t>gas_stove</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.8875838926174496</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>kerosene_stove</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.004793863854266539</v>
+      </c>
+      <c r="C73" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>refrigerator</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.08676893576222436</v>
+      </c>
+      <c r="C74" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>washing_machine</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.04482262703739213</v>
+      </c>
+      <c r="C75" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>microwave_oven</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.03403643336529243</v>
+      </c>
+      <c r="C76" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>sewing_machine</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.06759348034515819</v>
+      </c>
+      <c r="C77" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>bicycle</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3204697986577181</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>car</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.06543624161073826</v>
+      </c>
+      <c r="C79" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>motorcycle</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.2435282837967402</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
           <t>tricycle</t>
         </is>
       </c>
-      <c r="B72" t="n">
-        <v>0.07775768535262206</v>
-      </c>
-      <c r="C72" t="n">
-        <v>86</v>
+      <c r="B81" t="n">
+        <v>0.06783317353787152</v>
+      </c>
+      <c r="C81" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>mototaxi</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.02900287631831256</v>
+      </c>
+      <c r="C82" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>truck</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.006232023010546501</v>
+      </c>
+      <c r="C83" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>gpc</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5507.563998537872</v>
+      </c>
+      <c r="C84" t="n">
+        <v>22977557.0019</v>
       </c>
     </row>
   </sheetData>
